--- a/output[Editado].xlsx
+++ b/output[Editado].xlsx
@@ -4164,7 +4164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
@@ -4175,6 +4175,7 @@
     <numFmt numFmtId="171" formatCode="#,##0.000000"/>
     <numFmt numFmtId="172" formatCode="#,##0.0000"/>
     <numFmt numFmtId="173" formatCode="#,##0.000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -4340,7 +4341,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4366,7 +4367,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A776" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B792" activeCellId="0" sqref="B792"/>
+      <selection pane="bottomLeft" activeCell="B792" activeCellId="1" sqref="F52:F61 B792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40093,7 +40094,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B14" activeCellId="1" sqref="F52:F61 B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40814,7 +40815,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A622" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B622" activeCellId="0" sqref="B622"/>
+      <selection pane="bottomLeft" activeCell="B622" activeCellId="1" sqref="F52:F61 B622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -68443,7 +68444,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B199" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B204" activeCellId="0" sqref="B204"/>
+      <selection pane="bottomLeft" activeCell="B204" activeCellId="1" sqref="F52:F61 B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -77598,8 +77599,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A62" activeCellId="0" sqref="A62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/output[Editado].xlsx
+++ b/output[Editado].xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7606" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7606" uniqueCount="1379">
   <si>
     <t xml:space="preserve">ALG</t>
   </si>
@@ -4152,6 +4152,9 @@
   </si>
   <si>
     <t xml:space="preserve">Guloso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação com melhor</t>
   </si>
   <si>
     <t xml:space="preserve">Guloso randomizado</t>
@@ -4313,12 +4316,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -4367,7 +4370,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A776" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B792" activeCellId="1" sqref="F52:F61 B792"/>
+      <selection pane="bottomLeft" activeCell="B792" activeCellId="0" sqref="B792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40094,7 +40097,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B14" activeCellId="1" sqref="F52:F61 B14"/>
+      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40815,7 +40818,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A622" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B622" activeCellId="1" sqref="F52:F61 B622"/>
+      <selection pane="bottomLeft" activeCell="B622" activeCellId="0" sqref="B622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -68442,9 +68445,9 @@
   <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B199" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B211" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B204" activeCellId="1" sqref="F52:F61 B204"/>
+      <selection pane="bottomLeft" activeCell="E214" activeCellId="0" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -77599,8 +77602,8 @@
   </sheetPr>
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F52" activeCellId="0" sqref="F52:F61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -77609,8 +77612,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.94"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -77643,288 +77646,288 @@
       <c r="D3" s="4" t="s">
         <v>1278</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>1279</v>
+      <c r="E3" s="16" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.000959126</v>
+        <v>0.0016251</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>59</v>
+        <v>444</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>50</v>
+        <v>414</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.18</v>
+        <v>0.0724638</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>1281</v>
+        <v>1285</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.0016251</v>
+        <v>0.0448196</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>444</v>
+        <v>119925</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>414</v>
+        <v>109272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0724638</v>
+        <v>0.0974932</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.00209829</v>
+        <v>0.000959126</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>106</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0.858491</v>
+        <v>50</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.0176152</v>
+        <v>0.0783131</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>117</v>
+        <v>743625</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>42</v>
+        <v>628834</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.78571</v>
+        <v>0.182547</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.00336094</v>
+        <v>0.0745204</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>29</v>
+        <v>211252</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>18</v>
+        <v>139749</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.611111</v>
+        <v>0.51165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.0448196</v>
+        <v>0.00336094</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>119925</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>109272</v>
+        <v>18</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0974932</v>
+        <v>0.611111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.0783131</v>
+        <v>0.00209829</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>743625</v>
+        <v>197</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>628834</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>0.182547</v>
+        <v>106</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.858491</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B11" s="4" t="n">
-        <v>0.0745204</v>
+        <v>0.0439317</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>211252</v>
+        <v>53900.2</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>139749</v>
+        <v>25282.6</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.51165</v>
+        <v>1.13191</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B12" s="4" t="n">
-        <v>0.0439317</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>53900.2</v>
+        <v>0.0580046</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>1611550</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>25282.6</v>
+        <v>672403</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.13191</v>
+        <v>1.3967</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="B13" s="4" t="n">
-        <v>0.0580046</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>1611550</v>
+        <v>0.0176152</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>117</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>672403</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.3967</v>
+        <v>1.78571</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B15" s="17"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>1376</v>
       </c>
-      <c r="B15" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>1354</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>1280</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>0.65962735</v>
+        <v>0.6533604</v>
       </c>
       <c r="C18" s="19" t="n">
-        <v>53.6666666666667</v>
+        <v>53</v>
       </c>
       <c r="D18" s="19" t="n">
         <v>50</v>
       </c>
       <c r="E18" s="20" t="n">
-        <v>0.0733333333333333</v>
-      </c>
-      <c r="F18" s="17" t="n">
-        <v>0.1</v>
+        <v>0.0600000000000001</v>
+      </c>
+      <c r="F18" s="16" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>1280</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>0.65501255</v>
+        <v>0.65962735</v>
       </c>
       <c r="C19" s="19" t="n">
-        <v>54</v>
+        <v>53.6666666666667</v>
       </c>
       <c r="D19" s="19" t="n">
         <v>50</v>
       </c>
       <c r="E19" s="20" t="n">
-        <v>0.0800000000000001</v>
-      </c>
-      <c r="F19" s="17" t="n">
-        <v>0.2</v>
+        <v>0.0733333333333333</v>
+      </c>
+      <c r="F19" s="16" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>1280</v>
       </c>
       <c r="B20" s="18" t="n">
-        <v>0.6533604</v>
+        <v>0.65501255</v>
       </c>
       <c r="C20" s="19" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20" s="19" t="n">
         <v>50</v>
       </c>
       <c r="E20" s="20" t="n">
-        <v>0.0600000000000001</v>
-      </c>
-      <c r="F20" s="17" t="n">
-        <v>0.3</v>
+        <v>0.0800000000000001</v>
+      </c>
+      <c r="F20" s="16" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>1281</v>
       </c>
       <c r="B21" s="18" t="n">
-        <v>0.757624683333333</v>
+        <v>0.69676225</v>
       </c>
       <c r="C21" s="19" t="n">
-        <v>422.533333333333</v>
+        <v>419.85</v>
       </c>
       <c r="D21" s="19" t="n">
         <v>414</v>
       </c>
       <c r="E21" s="20" t="n">
-        <v>0.0206119162640903</v>
-      </c>
-      <c r="F21" s="17" t="n">
-        <v>0.1</v>
+        <v>0.0141304347826088</v>
+      </c>
+      <c r="F21" s="16" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>1281</v>
       </c>
       <c r="B22" s="18" t="n">
@@ -77939,56 +77942,56 @@
       <c r="E22" s="20" t="n">
         <v>0.018599033816425</v>
       </c>
-      <c r="F22" s="17" t="n">
+      <c r="F22" s="16" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="16" t="s">
         <v>1281</v>
       </c>
       <c r="B23" s="18" t="n">
-        <v>0.69676225</v>
+        <v>0.757624683333333</v>
       </c>
       <c r="C23" s="19" t="n">
-        <v>419.85</v>
+        <v>422.533333333333</v>
       </c>
       <c r="D23" s="19" t="n">
         <v>414</v>
       </c>
       <c r="E23" s="20" t="n">
-        <v>0.0141304347826088</v>
-      </c>
-      <c r="F23" s="17" t="n">
-        <v>0.3</v>
+        <v>0.0206119162640903</v>
+      </c>
+      <c r="F23" s="16" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="16" t="s">
         <v>1282</v>
       </c>
       <c r="B24" s="18" t="n">
-        <v>1.517819</v>
+        <v>1.508454</v>
       </c>
       <c r="C24" s="19" t="n">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D24" s="19" t="n">
         <v>106</v>
       </c>
       <c r="E24" s="20" t="n">
-        <v>0.858490566037736</v>
-      </c>
-      <c r="F24" s="17" t="n">
-        <v>0.1</v>
+        <v>0.773584905660377</v>
+      </c>
+      <c r="F24" s="16" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>1282</v>
       </c>
       <c r="B25" s="18" t="n">
-        <v>1.508454</v>
+        <v>1.570309</v>
       </c>
       <c r="C25" s="19" t="n">
         <v>188</v>
@@ -77999,152 +78002,152 @@
       <c r="E25" s="20" t="n">
         <v>0.773584905660377</v>
       </c>
-      <c r="F25" s="17" t="n">
-        <v>0.2</v>
+      <c r="F25" s="16" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>1282</v>
       </c>
       <c r="B26" s="18" t="n">
-        <v>1.570309</v>
+        <v>1.517819</v>
       </c>
       <c r="C26" s="19" t="n">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D26" s="19" t="n">
         <v>106</v>
       </c>
       <c r="E26" s="20" t="n">
-        <v>0.773584905660377</v>
-      </c>
-      <c r="F26" s="17" t="n">
-        <v>0.3</v>
+        <v>0.858490566037736</v>
+      </c>
+      <c r="F26" s="16" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>1283</v>
       </c>
       <c r="B27" s="18" t="n">
-        <v>9.6658575</v>
+        <v>9.617338</v>
       </c>
       <c r="C27" s="19" t="n">
-        <v>54.55</v>
+        <v>52.7</v>
       </c>
       <c r="D27" s="19" t="n">
         <v>42</v>
       </c>
       <c r="E27" s="20" t="n">
-        <v>0.298809523809524</v>
-      </c>
-      <c r="F27" s="17" t="n">
-        <v>0.1</v>
+        <v>0.254761904761905</v>
+      </c>
+      <c r="F27" s="16" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>1283</v>
       </c>
       <c r="B28" s="18" t="n">
-        <v>9.3861195</v>
+        <v>9.6658575</v>
       </c>
       <c r="C28" s="19" t="n">
-        <v>55</v>
+        <v>54.55</v>
       </c>
       <c r="D28" s="19" t="n">
         <v>42</v>
       </c>
       <c r="E28" s="20" t="n">
-        <v>0.30952380952381</v>
-      </c>
-      <c r="F28" s="17" t="n">
-        <v>0.2</v>
+        <v>0.298809523809524</v>
+      </c>
+      <c r="F28" s="16" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>1283</v>
       </c>
       <c r="B29" s="18" t="n">
-        <v>9.617338</v>
+        <v>9.3861195</v>
       </c>
       <c r="C29" s="19" t="n">
-        <v>52.7</v>
+        <v>55</v>
       </c>
       <c r="D29" s="19" t="n">
         <v>42</v>
       </c>
       <c r="E29" s="20" t="n">
-        <v>0.254761904761905</v>
-      </c>
-      <c r="F29" s="17" t="n">
-        <v>0.3</v>
+        <v>0.30952380952381</v>
+      </c>
+      <c r="F29" s="16" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>1284</v>
       </c>
       <c r="B30" s="18" t="n">
-        <v>2.56882716666667</v>
+        <v>2.568999</v>
       </c>
       <c r="C30" s="19" t="n">
-        <v>20.5166666666667</v>
+        <v>19.2</v>
       </c>
       <c r="D30" s="19" t="n">
         <v>18</v>
       </c>
       <c r="E30" s="20" t="n">
-        <v>0.139814814814815</v>
-      </c>
-      <c r="F30" s="17" t="n">
-        <v>0.1</v>
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="F30" s="16" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>1284</v>
       </c>
       <c r="B31" s="18" t="n">
-        <v>2.5746385</v>
+        <v>2.56882716666667</v>
       </c>
       <c r="C31" s="19" t="n">
-        <v>21.35</v>
+        <v>20.5166666666667</v>
       </c>
       <c r="D31" s="19" t="n">
         <v>18</v>
       </c>
       <c r="E31" s="20" t="n">
-        <v>0.186111111111111</v>
-      </c>
-      <c r="F31" s="17" t="n">
-        <v>0.2</v>
+        <v>0.139814814814815</v>
+      </c>
+      <c r="F31" s="16" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>1284</v>
       </c>
       <c r="B32" s="18" t="n">
-        <v>2.568999</v>
+        <v>2.5746385</v>
       </c>
       <c r="C32" s="19" t="n">
-        <v>19.2</v>
+        <v>21.35</v>
       </c>
       <c r="D32" s="19" t="n">
         <v>18</v>
       </c>
       <c r="E32" s="20" t="n">
-        <v>0.0666666666666667</v>
-      </c>
-      <c r="F32" s="17" t="n">
-        <v>0.3</v>
+        <v>0.186111111111111</v>
+      </c>
+      <c r="F32" s="16" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>1285</v>
       </c>
       <c r="B33" s="21" t="n">
@@ -78159,12 +78162,12 @@
       <c r="E33" s="20" t="n">
         <v>0.0974906654952778</v>
       </c>
-      <c r="F33" s="17" t="n">
+      <c r="F33" s="16" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>1285</v>
       </c>
       <c r="B34" s="21" t="n">
@@ -78179,12 +78182,12 @@
       <c r="E34" s="20" t="n">
         <v>0.0974906654952778</v>
       </c>
-      <c r="F34" s="17" t="n">
+      <c r="F34" s="16" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>1285</v>
       </c>
       <c r="B35" s="21" t="n">
@@ -78199,12 +78202,12 @@
       <c r="E35" s="20" t="n">
         <v>0.0974906654952778</v>
       </c>
-      <c r="F35" s="17" t="n">
+      <c r="F35" s="16" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>1286</v>
       </c>
       <c r="B36" s="19" t="n">
@@ -78219,12 +78222,12 @@
       <c r="E36" s="20" t="n">
         <v>0.174033608233652</v>
       </c>
-      <c r="F36" s="17" t="n">
+      <c r="F36" s="16" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>1286</v>
       </c>
       <c r="B37" s="19" t="n">
@@ -78239,12 +78242,12 @@
       <c r="E37" s="20" t="n">
         <v>0.229090109631477</v>
       </c>
-      <c r="F37" s="17" t="n">
+      <c r="F37" s="16" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>1286</v>
       </c>
       <c r="B38" s="19" t="n">
@@ -78259,12 +78262,12 @@
       <c r="E38" s="20" t="n">
         <v>0.25636137677034</v>
       </c>
-      <c r="F38" s="17" t="n">
+      <c r="F38" s="16" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>1287</v>
       </c>
       <c r="B39" s="19" t="n">
@@ -78279,12 +78282,12 @@
       <c r="E39" s="20" t="n">
         <v>0.472756513463424</v>
       </c>
-      <c r="F39" s="17" t="n">
+      <c r="F39" s="16" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>1287</v>
       </c>
       <c r="B40" s="19" t="n">
@@ -78299,12 +78302,12 @@
       <c r="E40" s="20" t="n">
         <v>0.589775955463009</v>
       </c>
-      <c r="F40" s="17" t="n">
+      <c r="F40" s="16" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>1287</v>
       </c>
       <c r="B41" s="19" t="n">
@@ -78319,12 +78322,12 @@
       <c r="E41" s="20" t="n">
         <v>1.1121739690445</v>
       </c>
-      <c r="F41" s="17" t="n">
+      <c r="F41" s="16" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>1288</v>
       </c>
       <c r="B42" s="19" t="n">
@@ -78339,12 +78342,12 @@
       <c r="E42" s="20" t="n">
         <v>1.13190890177434</v>
       </c>
-      <c r="F42" s="17" t="n">
+      <c r="F42" s="16" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="16" t="s">
         <v>1288</v>
       </c>
       <c r="B43" s="19" t="n">
@@ -78359,12 +78362,12 @@
       <c r="E43" s="20" t="n">
         <v>1.13190890177434</v>
       </c>
-      <c r="F43" s="17" t="n">
+      <c r="F43" s="16" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>1288</v>
       </c>
       <c r="B44" s="19" t="n">
@@ -78379,32 +78382,32 @@
       <c r="E44" s="20" t="n">
         <v>1.13190890177434</v>
       </c>
-      <c r="F44" s="17" t="n">
+      <c r="F44" s="16" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="16" t="s">
         <v>1289</v>
       </c>
       <c r="B45" s="19" t="n">
-        <v>8670.128565</v>
+        <v>2784.880785</v>
       </c>
       <c r="C45" s="19" t="n">
-        <v>1378918</v>
+        <v>1290338.5</v>
       </c>
       <c r="D45" s="19" t="n">
         <v>672403</v>
       </c>
       <c r="E45" s="20" t="n">
-        <v>1.05073148097198</v>
-      </c>
-      <c r="F45" s="17" t="n">
-        <v>0.1</v>
+        <v>0.918995751060004</v>
+      </c>
+      <c r="F45" s="16" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>1289</v>
       </c>
       <c r="B46" s="19" t="n">
@@ -78419,58 +78422,58 @@
       <c r="E46" s="20" t="n">
         <v>0.963605903007571</v>
       </c>
-      <c r="F46" s="17" t="n">
+      <c r="F46" s="16" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="16" t="s">
         <v>1289</v>
       </c>
       <c r="B47" s="19" t="n">
-        <v>2784.880785</v>
+        <v>8670.128565</v>
       </c>
       <c r="C47" s="19" t="n">
-        <v>1290338.5</v>
+        <v>1378918</v>
       </c>
       <c r="D47" s="19" t="n">
         <v>672403</v>
       </c>
       <c r="E47" s="20" t="n">
-        <v>0.918995751060004</v>
-      </c>
-      <c r="F47" s="17" t="n">
-        <v>0.3</v>
+        <v>1.05073148097198</v>
+      </c>
+      <c r="F47" s="16" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B49" s="16"/>
+      <c r="A49" s="17" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B49" s="17"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="16" t="s">
         <v>1276</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>1352</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>1353</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>1278</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F51" s="17" t="s">
+      <c r="E51" s="16" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F51" s="16" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="16" t="s">
         <v>1280</v>
       </c>
       <c r="B52" s="22" t="n">
@@ -78490,147 +78493,147 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="16" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B53" s="22" t="n">
+        <v>97.03209</v>
+      </c>
+      <c r="C53" s="19" t="n">
+        <v>95950.45</v>
+      </c>
+      <c r="D53" s="19" t="n">
+        <v>87426</v>
+      </c>
+      <c r="E53" s="20" t="n">
+        <v>0.0975047468716399</v>
+      </c>
+      <c r="F53" s="23" t="n">
+        <v>0.3275</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="16" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B54" s="22" t="n">
+        <v>11.3239775</v>
+      </c>
+      <c r="C54" s="19" t="n">
+        <v>36692.65</v>
+      </c>
+      <c r="D54" s="19" t="n">
+        <v>31458.8</v>
+      </c>
+      <c r="E54" s="20" t="n">
+        <v>0.166371571706486</v>
+      </c>
+      <c r="F54" s="23" t="n">
+        <v>0.3675</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B55" s="22" t="n">
+        <v>120.3764</v>
+      </c>
+      <c r="C55" s="19" t="n">
+        <v>682709.25</v>
+      </c>
+      <c r="D55" s="19" t="n">
+        <v>579925.5</v>
+      </c>
+      <c r="E55" s="20" t="n">
+        <v>0.177236127743995</v>
+      </c>
+      <c r="F55" s="23" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="16" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B56" s="22" t="n">
+        <v>15.6848685</v>
+      </c>
+      <c r="C56" s="19" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="D56" s="19" t="n">
+        <v>44</v>
+      </c>
+      <c r="E56" s="20" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="F56" s="23" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="16" t="s">
         <v>1281</v>
       </c>
-      <c r="B53" s="22" t="n">
+      <c r="B57" s="22" t="n">
         <v>30.339819</v>
       </c>
-      <c r="C53" s="19" t="n">
+      <c r="C57" s="19" t="n">
         <v>50846.85</v>
       </c>
-      <c r="D53" s="19" t="n">
+      <c r="D57" s="19" t="n">
         <v>35247.75</v>
       </c>
-      <c r="E53" s="20" t="n">
+      <c r="E57" s="20" t="n">
         <v>0.442555907823904</v>
       </c>
-      <c r="F53" s="23" t="n">
+      <c r="F57" s="23" t="n">
         <v>0.3375</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="17" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B54" s="22" t="n">
-        <v>15.0255385</v>
-      </c>
-      <c r="C54" s="19" t="n">
-        <v>5558.12</v>
-      </c>
-      <c r="D54" s="19" t="n">
-        <v>2623.66</v>
-      </c>
-      <c r="E54" s="20" t="n">
-        <v>1.11846047125009</v>
-      </c>
-      <c r="F54" s="23" t="n">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="17" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B55" s="22" t="n">
-        <v>15.6848685</v>
-      </c>
-      <c r="C55" s="19" t="n">
-        <v>52.25</v>
-      </c>
-      <c r="D55" s="19" t="n">
-        <v>44</v>
-      </c>
-      <c r="E55" s="20" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="F55" s="23" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B56" s="22" t="n">
-        <v>11.3239775</v>
-      </c>
-      <c r="C56" s="19" t="n">
-        <v>36692.65</v>
-      </c>
-      <c r="D56" s="19" t="n">
-        <v>31458.8</v>
-      </c>
-      <c r="E56" s="20" t="n">
-        <v>0.166371571706486</v>
-      </c>
-      <c r="F56" s="23" t="n">
-        <v>0.3675</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B57" s="22" t="n">
-        <v>97.03209</v>
-      </c>
-      <c r="C57" s="19" t="n">
-        <v>95950.45</v>
-      </c>
-      <c r="D57" s="19" t="n">
-        <v>87426</v>
-      </c>
-      <c r="E57" s="20" t="n">
-        <v>0.0975047468716399</v>
-      </c>
-      <c r="F57" s="23" t="n">
-        <v>0.3275</v>
-      </c>
-    </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17" t="s">
-        <v>1286</v>
+      <c r="A58" s="16" t="s">
+        <v>1287</v>
       </c>
       <c r="B58" s="22" t="n">
-        <v>120.3764</v>
+        <v>106.274813</v>
       </c>
       <c r="C58" s="19" t="n">
-        <v>682709.25</v>
+        <v>183736.8</v>
       </c>
       <c r="D58" s="19" t="n">
-        <v>579925.5</v>
+        <v>125815.5</v>
       </c>
       <c r="E58" s="20" t="n">
-        <v>0.177236127743995</v>
+        <v>0.460366965914375</v>
       </c>
       <c r="F58" s="23" t="n">
-        <v>0.22</v>
+        <v>0.2175</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="17" t="s">
-        <v>1287</v>
+      <c r="A59" s="16" t="s">
+        <v>1289</v>
       </c>
       <c r="B59" s="22" t="n">
-        <v>106.274813</v>
+        <v>81.9418025</v>
       </c>
       <c r="C59" s="19" t="n">
-        <v>183736.8</v>
+        <v>823280.75</v>
       </c>
       <c r="D59" s="19" t="n">
-        <v>125815.5</v>
+        <v>437068.25</v>
       </c>
       <c r="E59" s="20" t="n">
-        <v>0.460366965914375</v>
+        <v>0.883643458430119</v>
       </c>
       <c r="F59" s="23" t="n">
-        <v>0.2175</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="16" t="s">
         <v>1288</v>
       </c>
       <c r="B60" s="22" t="n">
@@ -78650,23 +78653,23 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="17" t="s">
-        <v>1289</v>
+      <c r="A61" s="16" t="s">
+        <v>1282</v>
       </c>
       <c r="B61" s="22" t="n">
-        <v>81.9418025</v>
+        <v>15.0255385</v>
       </c>
       <c r="C61" s="19" t="n">
-        <v>823280.75</v>
+        <v>5558.12</v>
       </c>
       <c r="D61" s="19" t="n">
-        <v>437068.25</v>
+        <v>2623.66</v>
       </c>
       <c r="E61" s="20" t="n">
-        <v>0.883643458430119</v>
+        <v>1.11846047125009</v>
       </c>
       <c r="F61" s="23" t="n">
-        <v>0.34</v>
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
